--- a/数据整理/stocks/A股/上证主板/600298-安琪酵母.xlsx
+++ b/数据整理/stocks/A股/上证主板/600298-安琪酵母.xlsx
@@ -451,43 +451,53 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F33"/>
+  <dimension ref="A1:H33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
         <is>
           <t>基金代码</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" s="2" t="inlineStr">
         <is>
           <t>基金名称</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
         <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
@@ -502,888 +512,1208 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>135.87</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>93.02</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>3.02</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>4.1033</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>8</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="n">
+      <c r="A3" s="2" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>450002</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>国富弹性市值混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>65.01</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>86.90</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.0348</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>009076</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>工银瑞信圆兴混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>75.38</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.73</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.9750</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>519018</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>汇添富均衡增长混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>62.24</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>90.74</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.9606</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>450009</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>国富中小盘股票</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>36.34</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>89.03</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.4681</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>001027</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>前海开源中证大农业指数增强</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>8.15</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.95</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.2673</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>519664</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>银河美丽优萃混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>5.03</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>95.16</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.59</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.2309</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>003886</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>汇安丰利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.49</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>7.92</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1362</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>003887</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>汇安丰利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.49</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>7.92</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1323</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
           <t>006511</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="C11" t="inlineStr">
         <is>
           <t>博道卓远混合A</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
         <is>
           <t>85.50</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>2.97</t>
         </is>
       </c>
-      <c r="F3" t="n">
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1004</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
         <v>10</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>000406</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>汇添富双利增强债券A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>6.37</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>20.02</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.49</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0949</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>080015</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>长盛中小盘精选混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>86.17</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.55</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0905</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>002498</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>兴业聚鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>12.15</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>21.15</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0753</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>002494</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>兴业聚盈灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>11.21</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>21.62</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0706</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>010687</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>工银瑞信文体产业股票C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>93.02</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0646</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>007825</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>博道志远混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>83.72</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0573</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>001487</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>宝盈优势产业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>93.47</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>6.87</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0550</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>002660</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>兴业聚源灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>8.22</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>20.82</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0501</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>001547</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>兴业聚惠灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>8.13</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>20.36</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0488</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>002668</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>兴业聚丰灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>7.45</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>20.93</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0477</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>519665</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>银河美丽优萃混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>95.16</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.59</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0459</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>002923</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>兴业聚惠灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>5.36</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>20.36</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0322</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>007826</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>博道志远混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>83.72</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0252</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>400023</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>东方多策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>88.25</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0208</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>002068</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>东方多策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>88.25</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0169</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>008547</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>博道安远6个月定期开放混合</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>21.60</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0162</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
         <v>2</v>
       </c>
-      <c r="B4" t="inlineStr">
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>519987</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>长信恒利优势混合</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>91.06</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0142</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>000407</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>汇添富双利增强债券C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>20.02</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>1.49</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0121</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>007133</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>嘉实长青竞争优势股票A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>89.40</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>1.89</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0102</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>008221</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>兴业聚鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>21.15</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0028</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
         <is>
           <t>006512</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C32" t="inlineStr">
         <is>
           <t>博道卓远混合C</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
         <is>
           <t>85.50</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F32" t="inlineStr">
         <is>
           <t>2.97</t>
         </is>
       </c>
-      <c r="F4" t="n">
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0027</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
         <v>10</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>008547</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>博道安远6个月定期开放混合</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>21.60</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>3.00</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>007134</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>嘉实长青竞争优势股票C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>89.40</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>1.89</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
         <v>4</v>
       </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>007825</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>博道志远混合A</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>83.72</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>2.97</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>007826</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>博道志远混合C</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>83.72</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>2.97</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>450009</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>国富中小盘股票</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>89.03</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>4.04</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>000406</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>汇添富双利增强债券A</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>20.02</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>1.49</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>000407</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>汇添富双利增强债券C</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>20.02</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>1.49</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>450002</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>国富弹性市值混合</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>86.90</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>3.13</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>519987</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>长信恒利优势混合</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>91.06</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>3.31</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>001027</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>前海开源中证大农业指数增强</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>93.95</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>3.28</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>519664</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>银河美丽优萃混合A</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>95.16</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>4.59</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>519665</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>银河美丽优萃混合C</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>95.16</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>4.59</t>
-        </is>
-      </c>
-      <c r="F15" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>519018</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>汇添富均衡增长混合</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>90.74</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>3.15</t>
-        </is>
-      </c>
-      <c r="F16" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>080015</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>长盛中小盘精选混合</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>86.17</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>4.55</t>
-        </is>
-      </c>
-      <c r="F17" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>001487</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>宝盈优势产业灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>93.47</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>6.87</t>
-        </is>
-      </c>
-      <c r="F18" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>001547</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>兴业聚惠灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>20.36</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>0.60</t>
-        </is>
-      </c>
-      <c r="F19" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>007133</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>嘉实长青竞争优势股票A</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>89.40</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>1.89</t>
-        </is>
-      </c>
-      <c r="F20" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>007134</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>嘉实长青竞争优势股票C</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>89.40</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>1.89</t>
-        </is>
-      </c>
-      <c r="F21" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>002068</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>东方多策略灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>88.25</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>2.60</t>
-        </is>
-      </c>
-      <c r="F22" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="1" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>002494</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>兴业聚盈灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>21.62</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>0.63</t>
-        </is>
-      </c>
-      <c r="F23" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="1" t="n">
-        <v>22</v>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>002498</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>兴业聚鑫灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>21.15</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>0.62</t>
-        </is>
-      </c>
-      <c r="F24" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="n">
-        <v>23</v>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>010687</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>工银瑞信文体产业股票C</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>93.02</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>3.02</t>
-        </is>
-      </c>
-      <c r="F25" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="n">
-        <v>24</v>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>002660</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>兴业聚源灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>20.82</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>0.61</t>
-        </is>
-      </c>
-      <c r="F26" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="1" t="n">
-        <v>25</v>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>002668</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>兴业聚丰灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>20.93</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>0.64</t>
-        </is>
-      </c>
-      <c r="F27" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="1" t="n">
-        <v>26</v>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>002923</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>兴业聚惠灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>20.36</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>0.60</t>
-        </is>
-      </c>
-      <c r="F28" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="1" t="n">
-        <v>27</v>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>003886</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>汇安丰利灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>94.49</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>7.92</t>
-        </is>
-      </c>
-      <c r="F29" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="1" t="n">
-        <v>28</v>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>003887</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>汇安丰利灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>94.49</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>7.92</t>
-        </is>
-      </c>
-      <c r="F30" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="1" t="n">
-        <v>29</v>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>008221</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>兴业聚鑫灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>21.15</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>0.62</t>
-        </is>
-      </c>
-      <c r="F31" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="1" t="n">
-        <v>30</v>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>400023</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>东方多策略灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>88.25</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>2.60</t>
-        </is>
-      </c>
-      <c r="F32" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="1" t="n">
-        <v>31</v>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>009076</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>工银瑞信圆兴混合</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>94.73</t>
-        </is>
-      </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>2.62</t>
-        </is>
-      </c>
-      <c r="F33" t="n">
-        <v>9</v>
-      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -1393,7 +1723,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F44"/>
+  <dimension ref="A1:H44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1414,15 +1744,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -1444,15 +1784,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>150.17</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>93.13</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>3.77</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>5.6614</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>6</v>
       </c>
     </row>
@@ -1462,26 +1812,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>010687</t>
+          <t>009076</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>工银瑞信文体产业股票C</t>
+          <t>工银瑞信圆兴混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>93.13</t>
+          <t>109.20</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>3.77</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>6</v>
+          <t>93.64</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>4.0404</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -1490,26 +1850,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>960028</t>
+          <t>011006</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>建信优选成长混合H</t>
+          <t>工银瑞信圆丰三年持有期混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>86.19</t>
+          <t>74.85</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>3.14</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>10</v>
+          <t>90.62</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.79</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.8368</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -1518,26 +1888,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>007883</t>
+          <t>519066</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>易方达沪深300医药卫生ETF联接C</t>
+          <t>汇添富蓝筹稳健混合</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>86.19</t>
+          <t>86.24</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>3.14</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>10</v>
+          <t>75.92</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2.7683</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="6">
@@ -1546,26 +1926,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>003886</t>
+          <t>519068</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>汇安丰利灵活配置混合A</t>
+          <t>汇添富成长焦点混合</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>94.13</t>
+          <t>80.16</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>7.48</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>4</v>
+          <t>85.36</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>2.7655</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="7">
@@ -1574,26 +1964,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>003887</t>
+          <t>450009</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>汇安丰利灵活配置混合C</t>
+          <t>国富中小盘股票</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>94.13</t>
+          <t>49.07</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>7.48</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>4</v>
+          <t>86.20</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>2.0364</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="8">
@@ -1602,26 +2002,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>519066</t>
+          <t>450002</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>汇添富蓝筹稳健混合</t>
+          <t>国富弹性市值混合</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>75.92</t>
+          <t>54.10</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>3.21</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>9</v>
+          <t>87.29</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.9801</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="9">
@@ -1630,26 +2040,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>519068</t>
+          <t>470008</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>汇添富成长焦点混合</t>
+          <t>汇添富策略回报混合</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>85.36</t>
+          <t>22.09</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>3.45</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>8</v>
+          <t>91.50</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.47</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.9874</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="10">
@@ -1658,26 +2078,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>450009</t>
+          <t>530003</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>国富中小盘股票</t>
+          <t>建信优选成长混合A</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>86.20</t>
+          <t>20.59</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>4.15</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>6</v>
+          <t>86.19</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.6465</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="11">
@@ -1686,26 +2116,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>161818</t>
+          <t>501065</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>银华消费主题混合</t>
+          <t>汇添富经典成长定期开放混合</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>92.73</t>
+          <t>15.18</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>7.14</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>2</v>
+          <t>85.45</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.5799</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="12">
@@ -1714,26 +2154,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>006346</t>
+          <t>161818</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>安信量化优选股票A</t>
+          <t>银华消费主题混合</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>89.93</t>
+          <t>7.26</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>1.41</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>3</v>
+          <t>92.73</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>7.14</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.5184</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="13">
@@ -1742,26 +2192,36 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>006347</t>
+          <t>180001</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>安信量化优选股票C</t>
+          <t>银华优势企业混合</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>89.93</t>
+          <t>8.65</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>1.41</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
-        <v>3</v>
+          <t>66.12</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.59</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.3970</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="14">
@@ -1770,26 +2230,36 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>006392</t>
+          <t>519664</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>中信保诚创新成长灵活配置混合</t>
+          <t>银河美丽优萃混合A</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>81.65</t>
+          <t>4.48</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>2.84</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
-        <v>10</v>
+          <t>94.19</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>7.86</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.3521</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="15">
@@ -1798,26 +2268,36 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>400023</t>
+          <t>001027</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>东方多策略灵活配置混合A</t>
+          <t>前海开源中证大农业指数增强</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>81.60</t>
+          <t>6.87</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>3.27</t>
-        </is>
-      </c>
-      <c r="F15" t="n">
-        <v>1</v>
+          <t>93.63</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.2817</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="16">
@@ -1826,26 +2306,36 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>002068</t>
+          <t>010551</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>东方多策略灵活配置混合C</t>
+          <t>淳厚欣颐一年持有期混合</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>81.60</t>
+          <t>5.74</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>3.27</t>
-        </is>
-      </c>
-      <c r="F16" t="n">
-        <v>1</v>
+          <t>66.79</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.71</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.2704</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="17">
@@ -1854,26 +2344,36 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>450002</t>
+          <t>003886</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>国富弹性市值混合</t>
+          <t>汇安丰利灵活配置混合A</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>87.29</t>
+          <t>1.98</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>3.66</t>
-        </is>
-      </c>
-      <c r="F17" t="n">
-        <v>10</v>
+          <t>94.13</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>7.48</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.1481</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="18">
@@ -1882,25 +2382,35 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>006759</t>
+          <t>003887</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>银河乐活优萃混合</t>
+          <t>汇安丰利灵活配置混合C</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>92.91</t>
+          <t>1.67</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>8.01</t>
-        </is>
-      </c>
-      <c r="F18" t="n">
+          <t>94.13</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>7.48</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.1249</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
         <v>4</v>
       </c>
     </row>
@@ -1910,26 +2420,36 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>470008</t>
+          <t>005235</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>汇添富策略回报混合</t>
+          <t>银华食品饮料量化优选股票A</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>91.50</t>
+          <t>2.47</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>4.47</t>
-        </is>
-      </c>
-      <c r="F19" t="n">
-        <v>7</v>
+          <t>92.63</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.1042</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="20">
@@ -1938,26 +2458,36 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>001027</t>
+          <t>080015</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>前海开源中证大农业指数增强</t>
+          <t>长盛中小盘精选混合</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>93.63</t>
+          <t>1.85</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>4.10</t>
-        </is>
-      </c>
-      <c r="F20" t="n">
-        <v>8</v>
+          <t>85.80</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>5.40</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0999</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="21">
@@ -1966,26 +2496,36 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>501065</t>
+          <t>510630</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>汇添富经典成长定期开放混合</t>
+          <t>华夏上证主要消费ETF</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>85.45</t>
+          <t>3.97</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>3.82</t>
-        </is>
-      </c>
-      <c r="F21" t="n">
-        <v>9</v>
+          <t>99.62</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0989</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="22">
@@ -1994,26 +2534,36 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>010551</t>
+          <t>001547</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>淳厚欣颐一年持有期混合</t>
+          <t>兴业聚惠灵活配置混合A</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>66.79</t>
+          <t>8.21</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>4.71</t>
-        </is>
-      </c>
-      <c r="F22" t="n">
-        <v>3</v>
+          <t>21.15</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0821</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="23">
@@ -2022,26 +2572,36 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>010781</t>
+          <t>010687</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>兴业聚申一年持有期混合A</t>
+          <t>工银瑞信文体产业股票C</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>20.10</t>
+          <t>2.14</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>1.01</t>
-        </is>
-      </c>
-      <c r="F23" t="n">
-        <v>8</v>
+          <t>93.13</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0807</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="24">
@@ -2050,26 +2610,36 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>010782</t>
+          <t>519665</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>兴业聚申一年持有期混合C</t>
+          <t>银河美丽优萃混合C</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>20.10</t>
+          <t>1.00</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>1.01</t>
-        </is>
-      </c>
-      <c r="F24" t="n">
-        <v>8</v>
+          <t>94.19</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>7.86</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0786</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="25">
@@ -2078,26 +2648,36 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>510630</t>
+          <t>007811</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>华夏上证主要消费ETF</t>
+          <t>淳厚信泽灵活配置混合A</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>99.62</t>
+          <t>1.66</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>2.49</t>
-        </is>
-      </c>
-      <c r="F25" t="n">
-        <v>8</v>
+          <t>71.40</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>4.32</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0717</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="26">
@@ -2106,26 +2686,36 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>011006</t>
+          <t>002668</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>工银瑞信圆丰三年持有期混合</t>
+          <t>兴业聚丰灵活配置混合</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>90.62</t>
+          <t>6.36</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>3.79</t>
-        </is>
-      </c>
-      <c r="F26" t="n">
-        <v>9</v>
+          <t>22.08</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0636</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="27">
@@ -2134,26 +2724,36 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>080015</t>
+          <t>006392</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>长盛中小盘精选混合</t>
+          <t>中信保诚创新成长灵活配置混合</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>85.80</t>
+          <t>2.14</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>5.40</t>
-        </is>
-      </c>
-      <c r="F27" t="n">
-        <v>6</v>
+          <t>81.65</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0608</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="28">
@@ -2162,26 +2762,36 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>001547</t>
+          <t>530012</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>兴业聚惠灵活配置混合A</t>
+          <t>建信积极配置混合</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>21.15</t>
+          <t>1.77</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>1.00</t>
-        </is>
-      </c>
-      <c r="F28" t="n">
-        <v>8</v>
+          <t>73.17</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0542</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="29">
@@ -2200,15 +2810,25 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
+          <t>5.36</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
           <t>21.15</t>
         </is>
       </c>
-      <c r="E29" t="inlineStr">
+      <c r="F29" t="inlineStr">
         <is>
           <t>1.00</t>
         </is>
       </c>
-      <c r="F29" t="n">
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0536</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
         <v>8</v>
       </c>
     </row>
@@ -2218,26 +2838,36 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>519664</t>
+          <t>001940</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>银河美丽优萃混合A</t>
+          <t>农银汇理现代农业加灵活配置混合</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>94.19</t>
+          <t>1.54</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>7.86</t>
-        </is>
-      </c>
-      <c r="F30" t="n">
-        <v>7</v>
+          <t>76.81</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0500</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="31">
@@ -2246,26 +2876,36 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>519665</t>
+          <t>010781</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>银河美丽优萃混合C</t>
+          <t>兴业聚申一年持有期混合A</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>94.19</t>
+          <t>4.70</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>7.86</t>
-        </is>
-      </c>
-      <c r="F31" t="n">
-        <v>7</v>
+          <t>20.10</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0475</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="32">
@@ -2274,26 +2914,36 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>001940</t>
+          <t>002660</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>农银汇理现代农业加灵活配置混合</t>
+          <t>兴业聚源灵活配置混合</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>76.81</t>
+          <t>4.27</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>3.25</t>
-        </is>
-      </c>
-      <c r="F32" t="n">
-        <v>8</v>
+          <t>22.09</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0427</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="33">
@@ -2302,26 +2952,36 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>519987</t>
+          <t>007883</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>长信恒利优势混合</t>
+          <t>易方达沪深300医药卫生ETF联接C</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>92.01</t>
+          <t>1.28</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>5.05</t>
-        </is>
-      </c>
-      <c r="F33" t="n">
-        <v>3</v>
+          <t>86.19</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0402</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="34">
@@ -2330,26 +2990,36 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>530003</t>
+          <t>005236</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>建信优选成长混合A</t>
+          <t>银华食品饮料量化优选股票C</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>86.19</t>
+          <t>0.90</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>3.14</t>
-        </is>
-      </c>
-      <c r="F34" t="n">
-        <v>10</v>
+          <t>92.63</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0380</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="35">
@@ -2358,26 +3028,36 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>530012</t>
+          <t>006759</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>建信积极配置混合</t>
+          <t>银河乐活优萃混合</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>73.17</t>
+          <t>0.42</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>3.06</t>
-        </is>
-      </c>
-      <c r="F35" t="n">
-        <v>9</v>
+          <t>92.91</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>8.01</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0336</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="36">
@@ -2386,26 +3066,36 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>005235</t>
+          <t>400023</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>银华食品饮料量化优选股票A</t>
+          <t>东方多策略灵活配置混合A</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>92.63</t>
+          <t>0.69</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>4.22</t>
-        </is>
-      </c>
-      <c r="F36" t="n">
-        <v>8</v>
+          <t>81.60</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0226</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="37">
@@ -2414,26 +3104,36 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>005236</t>
+          <t>002068</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>银华食品饮料量化优选股票C</t>
+          <t>东方多策略灵活配置混合C</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>92.63</t>
+          <t>0.65</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>4.22</t>
-        </is>
-      </c>
-      <c r="F37" t="n">
-        <v>8</v>
+          <t>81.60</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0213</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="38">
@@ -2442,26 +3142,36 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>180001</t>
+          <t>007812</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>银华优势企业混合</t>
+          <t>淳厚信泽灵活配置混合C</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>66.12</t>
+          <t>0.45</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>4.59</t>
-        </is>
-      </c>
-      <c r="F38" t="n">
-        <v>6</v>
+          <t>71.40</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>4.32</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0194</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="39">
@@ -2470,26 +3180,36 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>002660</t>
+          <t>519987</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>兴业聚源灵活配置混合</t>
+          <t>长信恒利优势混合</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>22.09</t>
+          <t>0.36</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>1.00</t>
-        </is>
-      </c>
-      <c r="F39" t="n">
-        <v>10</v>
+          <t>92.01</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>5.05</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0182</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="40">
@@ -2498,26 +3218,36 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>002668</t>
+          <t>004805</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>兴业聚丰灵活配置混合</t>
+          <t>长信消费精选行业量化股票</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>22.08</t>
+          <t>0.14</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>1.00</t>
-        </is>
-      </c>
-      <c r="F40" t="n">
-        <v>10</v>
+          <t>93.90</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>4.80</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0067</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="41">
@@ -2526,26 +3256,36 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>009076</t>
+          <t>006346</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>工银瑞信圆兴混合</t>
+          <t>安信量化优选股票A</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>93.64</t>
+          <t>0.31</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>3.70</t>
-        </is>
-      </c>
-      <c r="F41" t="n">
-        <v>7</v>
+          <t>89.93</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0044</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="42">
@@ -2554,26 +3294,36 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>007811</t>
+          <t>010782</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>淳厚信泽灵活配置混合A</t>
+          <t>兴业聚申一年持有期混合C</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>71.40</t>
+          <t>0.30</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>4.32</t>
-        </is>
-      </c>
-      <c r="F42" t="n">
-        <v>4</v>
+          <t>20.10</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0030</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="43">
@@ -2582,26 +3332,36 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>007812</t>
+          <t>006347</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>淳厚信泽灵活配置混合C</t>
+          <t>安信量化优选股票C</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>71.40</t>
+          <t>0.08</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>4.32</t>
-        </is>
-      </c>
-      <c r="F43" t="n">
-        <v>4</v>
+          <t>89.93</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="44">
@@ -2610,26 +3370,36 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>004805</t>
+          <t>960028</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>长信消费精选行业量化股票</t>
+          <t>建信优选成长混合H</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>93.90</t>
+          <t>0.02</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>4.80</t>
-        </is>
-      </c>
-      <c r="F44" t="n">
-        <v>9</v>
+          <t>86.19</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/上证主板/600298-安琪酵母.xlsx
+++ b/数据整理/stocks/A股/上证主板/600298-安琪酵母.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3405,4 +3406,1124 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H29"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>011006</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>工银瑞信圆丰三年持有期混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>109.83</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>89.20</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.2729</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>519068</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>汇添富成长焦点混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>82.62</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.59</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.6852</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>450009</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>国富中小盘股票</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>63.15</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>80.19</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.0019</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>450002</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>国富弹性市值混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>53.35</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>81.06</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.9526</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>009683</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>汇添富创新增长一年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>24.25</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>87.64</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.8463</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>360016</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>光大保德信行业轮动混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>17.78</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>85.08</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.7023</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>450001</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>国富中国收益混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>12.18</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>63.07</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.5055</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>001027</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>前海开源中证大农业指数增强</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>7.89</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.10</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.3148</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>003886</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>汇安丰利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.35</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>6.41</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.2391</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>450011</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>国富研究精选混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>92.36</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.96</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.2078</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>002472</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>光大保德信先进服务业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>4.38</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>85.62</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1840</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>005535</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>泰信竞争优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>92.52</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>5.24</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1682</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>003887</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>汇安丰利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>93.35</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>6.41</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1654</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>290006</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>泰信蓝筹精选混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>92.41</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>5.25</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1480</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>510630</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>华夏上证主要消费ETF</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>4.43</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>99.56</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.36</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1045</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>080015</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>长盛中小盘精选混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>92.15</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.98</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0981</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>009684</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>汇添富创新增长一年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>87.64</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0949</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>530012</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>建信积极配置混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>47.26</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0532</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>009005</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>创金合信鑫祺混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>6.93</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>25.03</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0506</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>004274</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>浦银安盛安恒回报定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>23.99</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0353</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>009750</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>汇安价值蓝筹混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>94.78</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.93</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0320</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>400023</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>东方多策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>91.18</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0196</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>002068</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>东方多策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>91.18</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0183</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>009006</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>创金合信鑫祺混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>25.03</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0123</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>004275</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>浦银安盛安恒回报定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>23.99</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0106</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>009751</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>汇安价值蓝筹混合C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>94.78</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>4.93</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0069</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>011179</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>浙商智选食品饮料股票A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>85.15</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>5.10</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0066</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>011180</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>浙商智选食品饮料股票C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>85.15</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>5.10</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/600298-安琪酵母.xlsx
+++ b/数据整理/stocks/A股/上证主板/600298-安琪酵母.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -4526,4 +4527,1010 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>001714</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>工银瑞信文体产业股票A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>142.55</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>84.65</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>5.0178</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>011006</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>工银瑞信圆丰三年持有期混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>97.38</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.79</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>3.4375</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>450009</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>国富中小盘股票</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>46.45</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>89.05</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.16</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.9323</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>450002</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>国富弹性市值混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>49.53</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>87.45</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.7979</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>519018</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>汇添富均衡增长混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>45.96</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.62</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.4983</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>009683</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>汇添富创新增长一年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>23.79</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>97.19</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.0111</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>010413</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>财通资管宸瑞一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>23.98</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.62</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.0072</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>010163</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>财通资管价值精选一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>15.21</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.81</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.6434</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>450001</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>国富中国收益混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>13.10</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>62.93</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.5017</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>005535</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>泰信竞争优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>4.94</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>91.32</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.63</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.2781</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>450011</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>国富研究精选混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>93.00</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.81</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.2057</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>290006</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>泰信蓝筹精选混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>93.60</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>5.45</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1657</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>010687</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>工银瑞信文体产业股票C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>84.65</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1204</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>510630</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>华夏上证主要消费ETF</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>4.43</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>99.34</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1099</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>010414</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>财通资管宸瑞一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>94.62</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1058</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>009684</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>汇添富创新增长一年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>97.19</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.1054</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>005943</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>工银瑞信聚福混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>7.90</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>28.73</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0972</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>005944</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>工银瑞信聚福混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>7.21</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>28.73</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0887</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>516550</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>嘉实中证大农业ETF</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>99.03</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0277</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>010164</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>财通资管价值精选一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>94.81</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0233</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>011179</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>浙商智选食品饮料股票A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>93.51</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>6.63</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0152</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>080015</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>长盛中小盘精选混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>79.40</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>4.54</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0132</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>519987</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>长信恒利优势混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>90.50</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0128</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>011180</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>浙商智选食品饮料股票C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>93.51</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>6.63</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0060</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>006992</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>嘉合锦创优势精选混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>55.77</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/600298-安琪酵母.xlsx
+++ b/数据整理/stocks/A股/上证主板/600298-安琪酵母.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -5533,4 +5534,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>25</v>
+      </c>
+      <c r="D2" t="n">
+        <v>18.22</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>28</v>
+      </c>
+      <c r="D3" t="n">
+        <v>13.94</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>43</v>
+      </c>
+      <c r="D4" t="n">
+        <v>27.59</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>32</v>
+      </c>
+      <c r="D5" t="n">
+        <v>13.26</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/600298-安琪酵母.xlsx
+++ b/数据整理/stocks/A股/上证主板/600298-安琪酵母.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -5542,7 +5543,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H84"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5553,17 +5554,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -5573,14 +5594,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>25</v>
-      </c>
-      <c r="D2" t="n">
-        <v>18.22</v>
+          <t>009119</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发品质回报混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>79.03</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>88.43</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.25</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>4.1491</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -5589,14 +5632,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>28</v>
-      </c>
-      <c r="D3" t="n">
-        <v>13.94</v>
+          <t>009076</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>工银瑞信圆兴混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>83.96</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.40</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.75</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>3.9881</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="4">
@@ -5605,14 +5670,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>43</v>
-      </c>
-      <c r="D4" t="n">
-        <v>27.59</v>
+          <t>011006</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>工银瑞信圆丰三年持有期混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>95.68</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.34</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.79</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>3.6263</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="5">
@@ -5621,13 +5708,3151 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>010377</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>广发价值核心混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>44.61</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>87.64</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.70</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2.0967</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>450009</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>国富中小盘股票</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>47.82</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>87.38</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.9941</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>519018</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>汇添富均衡增长混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>54.15</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.45</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.8194</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>450002</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>国富弹性市值混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>43.40</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>87.62</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.7620</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>009683</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>汇添富创新增长一年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>23.79</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>89.65</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.83</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.1491</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>010413</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>财通资管宸瑞一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>26.58</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.02</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.8718</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>163804</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>中银收益混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>19.19</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>89.87</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.14</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.7945</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>011908</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>广发沪港深价值精选混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>16.80</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>83.67</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.6821</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>009414</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>中银大健康股票A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>18.63</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>90.96</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.6800</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>570008</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>诺德周期策略混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>13.66</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>88.23</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.93</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.6734</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>007678</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>泰达宏利品牌升级混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>11.12</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>94.24</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.51</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.5015</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>005235</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>银华食品饮料量化优选股票A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>7.52</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>89.46</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>6.60</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.4963</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>012150</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>诺德价值发现一年持有期混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>9.42</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>90.74</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>5.07</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.4776</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>010378</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>广发价值核心混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>7.00</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>87.64</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.70</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.3290</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>290006</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>泰信蓝筹精选混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>7.95</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>91.24</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.3021</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>163822</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>中银主题策略混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>7.42</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>91.99</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.3020</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>001027</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>前海开源中证大农业指数增强</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>7.70</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>92.83</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.2964</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>005236</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>银华食品饮料量化优选股票C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>89.46</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>6.60</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.2614</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>660012</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>农银消费主题混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>8.14</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>87.04</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.2556</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>960033</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>农银消费主题混合H</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>8.14</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>87.04</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.2556</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>011078</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>诺德品质消费6个月持有期混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>6.12</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>93.34</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.2436</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>010515</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>富国天兴回报混合A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>53.39</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>20.74</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.2349</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>010715</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>财通资管消费升级一年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>10.55</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>43.89</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.2237</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>160127</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>南方新兴消费增长股票（LOF）A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>9.31</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>92.72</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>2.38</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.2216</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>001714</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>工银瑞信文体产业股票A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>89.58</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>5.01</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.2159</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>010965</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>中银鑫新消费成长混合A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>5.85</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>70.97</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.2106</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>000167</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>广发聚优灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>92.37</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>5.20</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.2064</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>960009</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>广发聚优灵活配置混合H</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>92.37</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>5.20</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.2064</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>001366</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>金鹰产业整合灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>7.40</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>94.59</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.1939</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>006671</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>广发消费升级股票</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>93.84</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>5.14</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.1845</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>010687</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>工银瑞信文体产业股票C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>89.58</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>5.01</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.1844</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>510630</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>华夏上证主要消费ETF</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>5.35</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>99.68</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.1546</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>006136</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>广发估值优势混合A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>2.56</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>93.42</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>5.09</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.1303</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>008537</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>兴银研究精选股票A</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>5.61</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>93.44</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.1279</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>011909</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>广发沪港深价值精选混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>83.67</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.1222</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>009684</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>汇添富创新增长一年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>2.44</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>89.65</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>4.83</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.1179</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>009750</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>汇安价值蓝筹混合A</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>93.77</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.1124</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>013209</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>金鹰大视野混合A</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>3.61</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>93.97</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.1043</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>010617</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>兴业消费精选混合A</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>87.43</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.1016</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>001193</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>中金消费升级股票</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>89.51</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0963</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>005943</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>工银瑞信聚福混合A</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>5.68</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>28.07</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0949</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>010414</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>财通资管宸瑞一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>94.02</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0932</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>002000</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>工银瑞信新生利混合</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>7.08</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>29.75</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0920</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>004505</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>博时新兴消费主题混合</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>2.07</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>89.05</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0859</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>005944</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>工银瑞信聚福混合C</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>4.85</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>28.07</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0810</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>009619</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>博时女性消费主题混合A</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>78.57</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0711</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>673010</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>西部利得新动向混合</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>64.73</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0610</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>010618</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>兴业消费精选混合C</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>1.85</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>87.43</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0568</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>400007</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>东方策略成长混合</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>78.10</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0561</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>013210</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>金鹰大视野混合C</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>93.97</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0494</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>001940</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>农银汇理现代农业加灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>1.43</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>71.63</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0436</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>012036</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>诺德兴远优选一年持有期混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>43.99</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0421</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>000110</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>金鹰元安混合A</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>7.95</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>23.91</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0390</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>010962</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>中银鑫新消费成长混合C</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>70.97</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0360</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>009120</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>广发品质回报混合C</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>88.43</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>5.25</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0352</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>011389</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>国都聚成混合</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>84.58</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>5.66</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0340</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>005492</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>农银汇理研究驱动灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>71.86</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0250</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>620007</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>金元顺安优质精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>74.64</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>2.11</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0173</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>001375</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>金元顺安优质精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>74.64</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>2.11</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0158</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>010525</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>富国天兴回报混合C</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>20.74</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0143</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>002513</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>金鹰元安混合C</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>23.91</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0131</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>010711</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>华富国潮优选混合</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>93.83</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0129</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>010716</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>财通资管消费升级一年持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>43.89</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0119</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>009751</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>汇安价值蓝筹混合C</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>93.77</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0102</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>080015</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>长盛中小盘精选混合</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>85.59</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>4.95</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0094</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>011179</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>浙商智选食品饮料股票A</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>86.09</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>6.36</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0083</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>001730</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>兴银大健康灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>93.04</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0067</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>011180</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>浙商智选食品饮料股票C</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>86.09</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>6.36</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0051</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>008538</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>兴银研究精选股票C</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>93.44</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0046</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>010321</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>中银大健康股票C</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>90.96</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.0040</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>011430</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>广发估值优势混合C</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>93.42</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>5.09</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.0036</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>005264</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>国都多策略混合</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>74.05</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>6.63</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.0033</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>001604</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>浙商汇金转型升级灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>88.92</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>5.05</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.0030</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>007679</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>泰达宏利品牌升级混合C</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>94.24</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>4.51</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.0018</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>960012</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>中银收益混合H</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>89.87</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>4.14</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.0012</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>673120</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>西部利得新富灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>79.03</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.0012</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>006992</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>嘉合锦创优势精选混合</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>78.67</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>005021</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>渤海汇金量化汇盈灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>93.12</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>009620</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>博时女性消费主题混合C</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>78.57</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>014505</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>中银收益混合C</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>89.87</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>4.14</t>
+        </is>
+      </c>
+      <c r="G84" t="n">
+        <v>0</v>
+      </c>
+      <c r="H84" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>83</v>
+      </c>
+      <c r="D2" t="n">
+        <v>32.3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>25</v>
+      </c>
+      <c r="D3" t="n">
+        <v>18.22</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>28</v>
+      </c>
+      <c r="D4" t="n">
+        <v>13.94</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>43</v>
+      </c>
+      <c r="D5" t="n">
+        <v>27.59</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>32</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>13.26</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/600298-安琪酵母.xlsx
+++ b/数据整理/stocks/A股/上证主板/600298-安琪酵母.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -8751,7 +8752,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8762,17 +8763,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -8782,14 +8803,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>83</v>
-      </c>
-      <c r="D2" t="n">
-        <v>32.3</v>
+          <t>001714</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>工银瑞信文体产业股票A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>95.78</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>88.85</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.70</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>4.5017</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -8798,14 +8841,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>25</v>
-      </c>
-      <c r="D3" t="n">
-        <v>18.22</v>
+          <t>009076</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>工银瑞信圆兴混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>59.11</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.87</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.66</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.7545</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -8814,14 +8879,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>28</v>
-      </c>
-      <c r="D4" t="n">
-        <v>13.94</v>
+          <t>163804</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中银收益混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>19.19</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>85.56</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.5085</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -8830,14 +8917,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>43</v>
-      </c>
-      <c r="D5" t="n">
-        <v>27.59</v>
+          <t>003886</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>汇安丰利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>7.39</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.04</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.35</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.3954</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="6">
@@ -8846,13 +8955,1497 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>012150</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>诺德价值发现一年持有期混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>9.42</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>91.48</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.3646</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>005235</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>银华食品饮料量化优选股票A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>6.45</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>89.94</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.14</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.2670</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>003887</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>汇安丰利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>4.33</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.04</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.35</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.2317</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>163822</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>中银主题策略混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>7.89</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>84.73</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.2225</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>005236</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>银华食品饮料量化优选股票C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>89.94</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.14</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1681</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>010687</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>工银瑞信文体产业股票C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>88.85</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.70</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1274</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>010418</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>财通景气行业一年封闭运作混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>86.25</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0919</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>510630</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>华夏上证主要消费ETF</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>99.52</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0837</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>002000</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>工银瑞信新生利混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>5.08</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>28.70</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0777</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>163809</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>中银蓝筹精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>79.31</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0753</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>005943</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>工银瑞信聚福混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>4.98</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>28.75</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1.51</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0752</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>009414</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>中银大健康股票A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>86.25</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0651</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>005944</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>工银瑞信聚福混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>28.75</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>1.51</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0636</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>673010</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>西部利得新动向混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>59.15</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0612</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>000017</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>财通可持续发展主题混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>88.06</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0598</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>501026</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>财通多策略福享混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>1.59</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>81.86</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0442</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>010539</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>浙商智多金稳健一年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>34.23</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0416</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>011389</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>国都聚成混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>87.22</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>6.14</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0295</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>400023</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>东方多策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>87.82</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0294</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>009750</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>汇安价值蓝筹混合A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>94.14</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>5.23</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0288</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>014505</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>中银收益混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>85.56</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0260</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>002068</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>东方多策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>87.82</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0199</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>010540</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>浙商智多金稳健一年持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>1.91</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>34.23</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0199</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>011179</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>浙商智选食品饮料股票A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>91.35</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>5.73</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0126</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>009751</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>汇安价值蓝筹混合C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>94.14</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>5.23</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0110</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>080015</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>长盛中小盘精选混合</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>87.94</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0063</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>006346</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>安信量化优选股票A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>90.62</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0051</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>006967</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>财通行业龙头精选混合A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>82.09</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0042</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>003854</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>汇安丰华灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>29.16</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0037</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>003855</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>汇安丰华灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>29.16</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0037</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>006347</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>安信量化优选股票C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>90.62</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0035</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>011180</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>浙商智选食品饮料股票C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>91.35</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>5.73</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0029</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>006968</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>财通行业龙头精选混合C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>82.09</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0025</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>010321</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>中银大健康股票C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>86.25</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0022</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>001604</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>浙商汇金转型升级灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>91.26</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>4.48</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0018</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>960012</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>中银收益混合H</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>85.56</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>40</v>
+      </c>
+      <c r="D2" t="n">
+        <v>10.49</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>83</v>
+      </c>
+      <c r="D3" t="n">
+        <v>32.3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>25</v>
+      </c>
+      <c r="D4" t="n">
+        <v>18.22</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>28</v>
+      </c>
+      <c r="D5" t="n">
+        <v>13.94</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>43</v>
+      </c>
+      <c r="D6" t="n">
+        <v>27.59</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>32</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>13.26</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/600298-安琪酵母.xlsx
+++ b/数据整理/stocks/A股/上证主板/600298-安琪酵母.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -10328,7 +10329,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10339,17 +10340,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -10359,14 +10380,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>40</v>
-      </c>
-      <c r="D2" t="n">
-        <v>10.49</v>
+          <t>001714</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>工银瑞信文体产业股票A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>103.17</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>86.62</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.11</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>5.2720</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -10375,14 +10418,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>83</v>
-      </c>
-      <c r="D3" t="n">
-        <v>32.3</v>
+          <t>009076</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>工银瑞信圆兴混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>62.28</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.76</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.17</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>3.2199</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -10391,14 +10456,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>25</v>
-      </c>
-      <c r="D4" t="n">
-        <v>18.22</v>
+          <t>011006</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>工银瑞信圆丰三年持有期混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>80.51</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>85.18</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.4475</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -10407,14 +10494,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>28</v>
-      </c>
-      <c r="D5" t="n">
-        <v>13.94</v>
+          <t>450009</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>国富中小盘股票</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>41.11</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>88.14</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.65</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.9116</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="6">
@@ -10423,14 +10532,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>43</v>
-      </c>
-      <c r="D6" t="n">
-        <v>27.59</v>
+          <t>100026</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>富国天合稳健混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>53.20</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>78.02</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.5747</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="7">
@@ -10439,13 +10570,1853 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>002593</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>富国美丽中国混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>46.58</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>82.61</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.3927</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>570008</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>诺德周期策略混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>17.20</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>85.17</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.24</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.9013</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>004674</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>富国新机遇灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>33.72</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.62</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.7992</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>163804</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>中银收益混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>21.06</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>89.89</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.6992</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>450011</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>国富研究精选混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>12.86</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.04</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.12</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.6584</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>005235</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>银华食品饮料量化优选股票A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>9.19</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>92.20</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.3906</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>163822</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>中银主题策略混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>10.77</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>92.02</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.3511</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>860001</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>光大阳光混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>10.21</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>84.60</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.3502</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>005236</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>银华食品饮料量化优选股票C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>6.27</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>92.20</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.2665</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>009181</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>浙商智多兴稳健回报一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>18.03</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>37.71</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.2434</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>007016</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>富国睿泽回报混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>6.11</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>74.91</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.1974</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>010687</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>工银瑞信文体产业股票C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>86.62</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>5.11</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.1349</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>610002</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>信达澳银精华配置混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>6.78</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>48.42</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>1.79</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.1214</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>004675</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>富国新机遇灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>4.99</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>93.62</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.1183</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>002430</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>中银丰利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>7.56</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>29.80</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.1157</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>510630</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>华夏上证主要消费ETF</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>4.14</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>99.60</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0994</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>009182</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>浙商智多兴稳健回报一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>6.86</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>37.71</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0926</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>673010</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>西部利得新动向混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>65.73</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0806</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>002000</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>工银瑞信新生利混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>29.89</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0741</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>005944</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>工银瑞信聚福混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>29.50</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0716</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>011566</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>富国美丽中国混合C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>82.61</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0598</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>001370</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>中银新趋势灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>37.38</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0569</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>010539</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>浙商智多金稳健一年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>1.84</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>39.22</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0491</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>010540</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>浙商智多金稳健一年持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>39.22</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0483</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>012772</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>信达澳银精华配置混合C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>48.42</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>1.79</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0430</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>014505</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>中银收益混合C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>1.27</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>89.89</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0422</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>011389</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>国都聚成混合</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>84.42</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>7.13</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0342</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>519961</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>长信利广灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>32.42</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>1.91</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0244</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>002431</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>中银丰利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>1.56</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>29.80</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0239</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>011179</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>浙商智选食品饮料股票A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>93.48</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>8.82</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0194</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>202213</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>南方核心竞争混合</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>70.29</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0193</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>011482</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>中银顺宁回报6个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>27.26</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0148</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>005517</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>富国新趋势灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>62.54</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0112</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>005943</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>工银瑞信聚福混合A</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>29.50</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0111</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>007381</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>国融融信消费严选混合A</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>84.32</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0107</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>010711</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>华富国潮优选混合</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>94.19</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0106</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>011180</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>浙商智选食品饮料股票C</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>93.48</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>8.82</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0062</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>860036</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>光大阳光混合B</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>84.60</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0034</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>001604</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>浙商汇金转型升级灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>84.86</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>4.98</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0020</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>005518</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>富国新趋势灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>62.54</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0019</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>011483</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>中银顺宁回报6个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>27.26</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0015</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>007382</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>国融融信消费严选混合C</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>84.32</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>960012</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>中银收益混合H</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>89.89</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>519960</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>长信利广灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>32.42</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>1.91</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>860037</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>光大阳光混合C</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>84.60</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="G51" t="n">
+        <v>0</v>
+      </c>
+      <c r="H51" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>50</v>
+      </c>
+      <c r="D2" t="n">
+        <v>22.08</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>40</v>
+      </c>
+      <c r="D3" t="n">
+        <v>10.49</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>83</v>
+      </c>
+      <c r="D4" t="n">
+        <v>32.3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>25</v>
+      </c>
+      <c r="D5" t="n">
+        <v>18.22</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>28</v>
+      </c>
+      <c r="D6" t="n">
+        <v>13.94</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>43</v>
+      </c>
+      <c r="D7" t="n">
+        <v>27.59</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>32</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>13.26</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/600298-安琪酵母.xlsx
+++ b/数据整理/stocks/A股/上证主板/600298-安琪酵母.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="D2" t="n">
-        <v>22.08</v>
+        <v>15.7</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D3" t="n">
-        <v>10.49</v>
+        <v>22.08</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>83</v>
+        <v>40</v>
       </c>
       <c r="D4" t="n">
-        <v>32.3</v>
+        <v>10.49</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>25</v>
+        <v>83</v>
       </c>
       <c r="D5" t="n">
-        <v>18.22</v>
+        <v>32.3</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D6" t="n">
-        <v>13.94</v>
+        <v>18.22</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="D7" t="n">
-        <v>27.59</v>
+        <v>13.94</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>43</v>
+      </c>
+      <c r="D8" t="n">
+        <v>27.59</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>32</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>13.26</v>
       </c>
     </row>
@@ -600,6 +617,2074 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H54"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>001714</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>工银文体产业股票A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>82.50</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>87.70</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.30</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>4.3725</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>009076</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>工银圆兴混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>49.75</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>87.73</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.52</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.7462</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>011006</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>工银圆丰三年持有期混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>68.77</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>88.83</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.0906</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>450009</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>国富中小盘股票</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>35.14</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>85.39</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.2053</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>570008</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>诺德周期策略混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>16.95</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>89.23</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.59</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.9475</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>163804</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>中银收益混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>18.71</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>86.44</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.6829</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>163822</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>中银主题策略混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>11.67</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>89.71</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.4236</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>012150</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>诺德价值发现一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>7.63</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>92.99</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.09</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.3884</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>860001</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>光大阳光混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>8.51</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>90.45</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.3591</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>450011</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>国富研究精选混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>6.49</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.02</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.80</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.3115</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>012510</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>国富优质企业一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>6.43</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>92.58</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.70</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.3022</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>610002</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>信澳精华配置混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>80.39</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.49</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1679</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>014505</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>中银收益混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>86.44</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1482</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>570005</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>诺德成长优势混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>86.37</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1410</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>009181</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>浙商智多兴稳健回报一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>8.49</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>38.71</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1.55</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1316</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>015386</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>中银主题策略混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>89.71</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.1267</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>010687</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>工银文体产业股票C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>87.70</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>5.30</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.1171</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>009414</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>中银大健康股票A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>87.62</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.1035</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>010965</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>中银鑫新消费成长混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>86.59</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.1027</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>510630</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>华夏上证主要消费ETF</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>99.86</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0979</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>159610</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>景顺长城中证500增强策略ETF</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>6.37</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>98.41</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0898</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>009182</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>浙商智多兴稳健回报一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>4.97</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>38.71</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>1.55</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0770</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>012772</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>信澳精华配置混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>1.58</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>80.39</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>4.49</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0709</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>673010</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>西部利得新动向混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>60.12</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0696</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>005944</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>工银聚福混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>4.28</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>29.01</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0603</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>012147</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>富国大盘核心资产混合</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>70.23</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0589</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>011431</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>泰达宏利消费服务混合A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>86.98</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0475</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>010540</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>浙商智多金稳健一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>38.82</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0321</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>010539</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>浙商智多金稳健一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>38.82</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0303</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>004707</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>景顺长城睿成灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>29.49</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0243</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>010962</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>中银鑫新消费成长混合C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>86.59</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0214</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>003561</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>诺德成长精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>84.67</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0192</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>011432</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>泰达宏利消费服务混合C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>86.98</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0142</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>010428</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>兴银策略智选混合C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>90.21</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0136</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>011179</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>浙商智选食品饮料股票A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>91.42</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>7.45</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0104</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>005444</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>光大保德信多策略精选18个月定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>29.28</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0103</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>012511</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>国富优质企业一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>92.58</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>4.70</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0094</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>519961</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>长信利广灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>26.85</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>1.27</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0094</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>010427</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>兴银策略智选混合A</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>90.21</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0088</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>004719</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>景顺长城睿成灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>29.49</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0084</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>009750</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>汇安价值蓝筹混合A</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>94.35</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0084</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>011180</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>浙商智选食品饮料股票C</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>91.42</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>7.45</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0060</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>009751</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>汇安价值蓝筹混合C</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>94.35</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0053</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>015085</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>中欧核心消费股票A</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>81.53</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0047</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>001730</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>兴银大健康灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>90.36</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0044</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>010321</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>中银大健康股票C</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>87.62</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0043</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>015086</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>中欧核心消费股票C</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>81.53</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0039</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>860036</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>光大阳光混合B</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>90.45</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0038</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>960012</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>中银收益混合H</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>86.44</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>005943</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>工银聚福混合A</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>29.01</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>519960</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>长信利广灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>26.85</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>1.27</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>003562</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>诺德成长精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>84.67</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>860037</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>光大阳光混合C</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>90.45</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="G54" t="n">
+        <v>0</v>
+      </c>
+      <c r="H54" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2553,7 +4638,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4129,7 +6214,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -7337,7 +9422,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -8343,7 +10428,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -9463,7 +11548,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -11153,7 +13238,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/上证主板/600298-安琪酵母.xlsx
+++ b/数据整理/stocks/A股/上证主板/600298-安琪酵母.xlsx
@@ -7,14 +7,15 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -458,7 +459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,14 +490,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>53</v>
+        <v>92</v>
       </c>
       <c r="D2" t="n">
-        <v>15.7</v>
+        <v>21.56</v>
       </c>
     </row>
     <row r="3">
@@ -505,14 +506,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="D3" t="n">
-        <v>22.08</v>
+        <v>15.7</v>
       </c>
     </row>
     <row r="4">
@@ -521,14 +522,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D4" t="n">
-        <v>10.49</v>
+        <v>22.08</v>
       </c>
     </row>
     <row r="5">
@@ -537,14 +538,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>83</v>
+        <v>40</v>
       </c>
       <c r="D5" t="n">
-        <v>32.3</v>
+        <v>10.49</v>
       </c>
     </row>
     <row r="6">
@@ -553,14 +554,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>25</v>
+        <v>83</v>
       </c>
       <c r="D6" t="n">
-        <v>18.22</v>
+        <v>32.3</v>
       </c>
     </row>
     <row r="7">
@@ -569,14 +570,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D7" t="n">
-        <v>13.94</v>
+        <v>18.22</v>
       </c>
     </row>
     <row r="8">
@@ -585,14 +586,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="D8" t="n">
-        <v>27.59</v>
+        <v>13.94</v>
       </c>
     </row>
     <row r="9">
@@ -601,14 +602,1302 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>43</v>
+      </c>
+      <c r="D9" t="n">
+        <v>27.59</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C9" t="n">
+      <c r="C10" t="n">
         <v>32</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D10" t="n">
         <v>13.26</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H33"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>001714</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>工银瑞信文体产业股票A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>135.87</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.02</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>4.1033</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>450002</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>国富弹性市值混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>65.01</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>86.90</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.0348</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>009076</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>工银瑞信圆兴混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>75.38</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.73</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.9750</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>519018</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>汇添富均衡增长混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>62.24</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>90.74</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.9606</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>450009</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>国富中小盘股票</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>36.34</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>89.03</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.4681</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>001027</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>前海开源中证大农业指数增强</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>8.15</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.95</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.2673</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>519664</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>银河美丽优萃混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>5.03</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>95.16</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.59</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.2309</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>003886</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>汇安丰利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.49</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>7.92</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1362</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>003887</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>汇安丰利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.49</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>7.92</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1323</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>006511</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>博道卓远混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>85.50</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1004</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>000406</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>汇添富双利增强债券A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>6.37</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>20.02</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.49</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0949</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>080015</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>长盛中小盘精选混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>86.17</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.55</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0905</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>002498</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>兴业聚鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>12.15</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>21.15</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0753</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>002494</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>兴业聚盈灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>11.21</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>21.62</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0706</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>010687</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>工银瑞信文体产业股票C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>93.02</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0646</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>007825</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>博道志远混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>83.72</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0573</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>001487</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>宝盈优势产业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>93.47</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>6.87</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0550</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>002660</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>兴业聚源灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>8.22</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>20.82</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0501</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>001547</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>兴业聚惠灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>8.13</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>20.36</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0488</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>002668</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>兴业聚丰灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>7.45</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>20.93</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0477</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>519665</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>银河美丽优萃混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>95.16</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.59</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0459</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>002923</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>兴业聚惠灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>5.36</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>20.36</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0322</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>007826</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>博道志远混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>83.72</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0252</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>400023</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>东方多策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>88.25</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0208</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>002068</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>东方多策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>88.25</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0169</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>008547</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>博道安远6个月定期开放混合</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>21.60</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0162</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>519987</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>长信恒利优势混合</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>91.06</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0142</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>000407</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>汇添富双利增强债券C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>20.02</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>1.49</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0121</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>007133</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>嘉实长青竞争优势股票A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>89.40</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>1.89</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0102</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>008221</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>兴业聚鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>21.15</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0028</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>006512</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>博道卓远混合C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>85.50</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0027</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>007134</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>嘉实长青竞争优势股票C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>89.40</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>1.89</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -617,6 +1906,3554 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H93"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>001714</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>工银文体产业股票A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>77.37</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>90.06</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.86</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>4.5339</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>009076</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>工银圆兴混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>49.11</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.89</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.08</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.9859</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>570001</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>诺德价值优势混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>41.43</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.66</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.98</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.8918</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>570008</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>诺德周期策略混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>19.92</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>88.02</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>7.74</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.5418</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>450002</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>国富弹性市值混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>30.97</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>87.95</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.8579</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>519692</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>交银成长混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>25.08</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>80.90</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.8427</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>012150</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>诺德价值发现一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>7.44</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.12</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>7.67</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.5706</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>519694</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>交银蓝筹混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>17.19</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>81.14</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.5690</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>163822</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>中银主题策略混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>17.43</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>87.27</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.5159</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>163804</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>中银收益混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>15.84</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>88.15</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.4910</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>001556</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>天弘中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>25.50</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>94.27</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.86</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.4743</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>001220</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>民生加银研究精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>10.38</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>91.81</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.4463</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>860001</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>光大阳光混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>9.17</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>87.55</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.60</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.4218</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>001163</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>银华中国梦30股票</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>7.43</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>89.88</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>5.13</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.3812</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>009029</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>工银高质量成长混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>12.82</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>87.91</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.3038</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>100029</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>富国天成红利混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>8.86</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>73.21</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.2499</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>001557</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>天弘中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>13.20</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>94.27</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>1.86</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.2455</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>010515</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>富国天兴回报混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>36.87</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>20.44</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.2286</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>014505</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>中银收益混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>6.72</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>88.15</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.2083</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>180001</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>银华优势企业混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>6.80</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>68.05</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.2054</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>610002</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>信澳精华配置混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>79.51</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>5.46</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.1895</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>161818</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>银华消费主题混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>90.47</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>5.32</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.1740</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>015386</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>中银主题策略混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>4.86</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>87.27</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.1439</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>009181</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>浙商智多兴稳健回报一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>7.69</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>36.88</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.1407</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>002376</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>国寿安保核心产业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>4.70</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>88.55</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.1354</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>010687</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>工银文体产业股票C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>90.06</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>5.86</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.1184</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>011818</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>鹏扬景阳一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>17.90</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>25.20</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.1146</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>006398</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>宝盈祥颐定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>33.77</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.1120</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>016588</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>富国融甄混合A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>4.57</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>29.63</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.1047</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>010965</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>中银鑫新消费成长混合A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>88.64</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.1043</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>009182</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>浙商智多兴稳健回报一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>4.66</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>36.88</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0853</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>009414</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>中银大健康股票A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>88.80</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0844</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>009419</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>宝盈祥明一年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>30.42</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0796</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>013041</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>鹏扬景浦一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>11.90</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>25.34</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0785</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>005944</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>工银聚福混合C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>29.83</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0655</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>012147</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>富国大盘核心资产混合</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>72.15</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0642</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>012253</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>鹏扬景润一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>8.67</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>24.74</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0581</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>011748</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>华泰柏瑞景气成长混合A</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>79.84</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>2.56</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0568</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>011736</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>宝盈祥庆9个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>30.03</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0482</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>012772</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>信澳精华配置混合C</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>79.51</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>5.46</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0470</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>016589</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>富国融甄混合C</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>1.96</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>29.63</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0449</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>013721</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>信澳景气优选混合A</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>92.37</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0428</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>009030</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>工银高质量成长混合C</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>87.91</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0408</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>005409</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>华泰柏瑞战略新兴产业混合A</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>82.34</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0347</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>930602</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>国信价值智选混合</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>80.19</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>5.33</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0293</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>011198</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>交银施罗德鑫选回报混合A</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>23.60</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0246</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>005824</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>泰康颐享混合C</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>24.90</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0237</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>002935</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>泰康恒泰回报灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>24.69</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0232</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>010962</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>中银鑫新消费成长混合C</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>88.64</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0222</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>014133</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>工银中证500六个月持有指数增强A</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>1.59</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>94.29</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0211</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>013722</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>信澳景气优选混合C</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>92.37</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0190</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>005823</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>泰康颐享混合A</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>24.90</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0186</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>970094</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>兴证资管金麒麟均衡优选一年持有期混合B</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>89.11</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>4.73</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0151</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>004301</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>国寿安保稳信混合A</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>22.04</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0135</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>970093</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>兴证资管金麒麟均衡优选一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>89.11</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>4.73</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0128</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>014346</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>银华消费主题混合C</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>90.47</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>5.32</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0128</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>011199</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>交银施罗德鑫选回报混合C</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>23.60</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0119</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>014134</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>工银中证500六个月持有指数增强C</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>94.29</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0117</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>010525</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>富国天兴回报混合C</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>1.76</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>20.44</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0109</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>011179</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>浙商智选食品饮料股票A</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>91.70</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>6.24</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0106</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>010428</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>兴银策略智选混合C</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>92.14</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0102</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>010321</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>中银大健康股票C</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>88.80</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0101</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>006399</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>宝盈祥颐定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>33.77</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0090</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>009750</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>汇安价值蓝筹混合A</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>94.11</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0089</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>011737</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>宝盈祥庆9个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>30.03</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0087</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>010711</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>华富国潮优选混合</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>90.37</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0080</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>011180</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>浙商智选食品饮料股票C</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>91.70</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>6.24</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0075</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>011819</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>鹏扬景阳一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>25.20</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0072</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>010427</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>兴银策略智选混合A</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>92.14</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0066</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>002934</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>泰康恒泰回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>24.69</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0066</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>007316</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>交银施罗德可转债债券A</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>20.54</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0061</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>009751</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>汇安价值蓝筹混合C</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>94.11</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0059</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>013042</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>鹏扬景浦一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>25.34</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.0058</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>960016</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>交银成长混合H</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>80.90</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.0057</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>001730</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>兴银大健康灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>91.17</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.0051</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>001318</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>东方新策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>36.37</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.0047</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>860036</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>光大阳光混合B</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>87.55</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>4.60</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.0046</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>010032</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>华泰柏瑞战略新兴产业混合C</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>82.34</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.0031</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>970073</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>东证融汇成长优选混合A</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>89.59</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.0030</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>012254</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>鹏扬景润一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>24.74</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.0029</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>011749</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>华泰柏瑞景气成长混合C</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>79.84</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>2.56</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.0023</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>400020</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>东方成长回报平衡混合</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>45.42</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.0020</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>007317</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>交银施罗德可转债债券C</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>20.54</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.0016</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>960012</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>中银收益混合H</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>88.15</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.0012</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>005943</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>工银聚福混合A</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>29.83</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>009420</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>宝盈祥明一年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>30.42</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>970095</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>兴证资管金麒麟均衡优选一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>89.11</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>4.73</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>970074</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>东证融汇成长优选混合C</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>89.59</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>002060</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>东方新策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>36.37</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>004302</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>国寿安保稳信混合C</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>22.04</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>0.0001</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>015406</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>国寿安保稳信混合E</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>22.04</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="G92" t="n">
+        <v>0</v>
+      </c>
+      <c r="H92" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>860037</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>光大阳光混合C</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>87.55</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>4.60</t>
+        </is>
+      </c>
+      <c r="G93" t="n">
+        <v>0</v>
+      </c>
+      <c r="H93" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2684,7 +7521,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4638,7 +9475,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6214,7 +11051,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -9422,7 +14259,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -10428,7 +15265,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -11548,7 +16385,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -13236,1276 +18073,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H33"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>001714</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>工银瑞信文体产业股票A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>135.87</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>93.02</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>3.02</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>4.1033</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>450002</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>国富弹性市值混合</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>65.01</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>86.90</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>3.13</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>2.0348</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>009076</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>工银瑞信圆兴混合</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>75.38</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>94.73</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>2.62</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>1.9750</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>519018</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>汇添富均衡增长混合</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>62.24</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>90.74</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>3.15</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>1.9606</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>450009</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>国富中小盘股票</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>36.34</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>89.03</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>4.04</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>1.4681</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>001027</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>前海开源中证大农业指数增强</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>8.15</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>93.95</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>3.28</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.2673</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>519664</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>银河美丽优萃混合A</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>5.03</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>95.16</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>4.59</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.2309</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>003886</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>汇安丰利灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>1.72</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>94.49</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>7.92</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.1362</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>003887</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>汇安丰利灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>1.67</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>94.49</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>7.92</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.1323</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>006511</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>博道卓远混合A</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>3.38</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>85.50</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>2.97</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.1004</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>000406</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>汇添富双利增强债券A</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>6.37</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>20.02</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>1.49</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.0949</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>080015</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>长盛中小盘精选混合</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>1.99</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>86.17</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>4.55</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0.0905</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>002498</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>兴业聚鑫灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>12.15</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>21.15</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>0.62</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0.0753</t>
-        </is>
-      </c>
-      <c r="H14" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>002494</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>兴业聚盈灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>11.21</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>21.62</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>0.63</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>0.0706</t>
-        </is>
-      </c>
-      <c r="H15" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>010687</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>工银瑞信文体产业股票C</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>2.14</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>93.02</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>3.02</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>0.0646</t>
-        </is>
-      </c>
-      <c r="H16" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>007825</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>博道志远混合A</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>1.93</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>83.72</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>2.97</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>0.0573</t>
-        </is>
-      </c>
-      <c r="H17" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>001487</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>宝盈优势产业灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>0.80</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>93.47</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>6.87</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>0.0550</t>
-        </is>
-      </c>
-      <c r="H18" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="2" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>002660</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>兴业聚源灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>8.22</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>20.82</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>0.61</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>0.0501</t>
-        </is>
-      </c>
-      <c r="H19" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="2" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>001547</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>兴业聚惠灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>8.13</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>20.36</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>0.60</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>0.0488</t>
-        </is>
-      </c>
-      <c r="H20" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="2" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>002668</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>兴业聚丰灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>7.45</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>20.93</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>0.64</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>0.0477</t>
-        </is>
-      </c>
-      <c r="H21" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>519665</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>银河美丽优萃混合C</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>1.00</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>95.16</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>4.59</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>0.0459</t>
-        </is>
-      </c>
-      <c r="H22" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="2" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>002923</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>兴业聚惠灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>5.36</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>20.36</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>0.60</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>0.0322</t>
-        </is>
-      </c>
-      <c r="H23" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="2" t="n">
-        <v>22</v>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>007826</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>博道志远混合C</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>0.85</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>83.72</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>2.97</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>0.0252</t>
-        </is>
-      </c>
-      <c r="H24" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="2" t="n">
-        <v>23</v>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>400023</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>东方多策略灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>0.80</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>88.25</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>2.60</t>
-        </is>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>0.0208</t>
-        </is>
-      </c>
-      <c r="H25" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="2" t="n">
-        <v>24</v>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>002068</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>东方多策略灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>0.65</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>88.25</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>2.60</t>
-        </is>
-      </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>0.0169</t>
-        </is>
-      </c>
-      <c r="H26" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="2" t="n">
-        <v>25</v>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>008547</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>博道安远6个月定期开放混合</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>0.54</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>21.60</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>3.00</t>
-        </is>
-      </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>0.0162</t>
-        </is>
-      </c>
-      <c r="H27" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="2" t="n">
-        <v>26</v>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>519987</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>长信恒利优势混合</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>0.43</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>91.06</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>3.31</t>
-        </is>
-      </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>0.0142</t>
-        </is>
-      </c>
-      <c r="H28" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="2" t="n">
-        <v>27</v>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>000407</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>汇添富双利增强债券C</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>0.81</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>20.02</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>1.49</t>
-        </is>
-      </c>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t>0.0121</t>
-        </is>
-      </c>
-      <c r="H29" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="2" t="n">
-        <v>28</v>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>007133</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>嘉实长青竞争优势股票A</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>0.54</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>89.40</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>1.89</t>
-        </is>
-      </c>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t>0.0102</t>
-        </is>
-      </c>
-      <c r="H30" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="2" t="n">
-        <v>29</v>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>008221</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>兴业聚鑫灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>0.45</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>21.15</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>0.62</t>
-        </is>
-      </c>
-      <c r="G31" t="inlineStr">
-        <is>
-          <t>0.0028</t>
-        </is>
-      </c>
-      <c r="H31" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>006512</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>博道卓远混合C</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>0.09</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>85.50</t>
-        </is>
-      </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>2.97</t>
-        </is>
-      </c>
-      <c r="G32" t="inlineStr">
-        <is>
-          <t>0.0027</t>
-        </is>
-      </c>
-      <c r="H32" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="2" t="n">
-        <v>31</v>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>007134</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>嘉实长青竞争优势股票C</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>0.03</t>
-        </is>
-      </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>89.40</t>
-        </is>
-      </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>1.89</t>
-        </is>
-      </c>
-      <c r="G33" t="inlineStr">
-        <is>
-          <t>0.0006</t>
-        </is>
-      </c>
-      <c r="H33" t="n">
-        <v>4</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>